--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/32_Eskişehir_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/32_Eskişehir_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5C8477F-B1FB-435F-B2F1-75436E758B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D93A4ED-053E-464A-A04A-7656AA8EA421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{AF716399-62AB-472C-A99B-801C33C676EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{239CF0D3-B068-4D62-91CE-5EBB1B0EDA63}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -794,14 +794,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{ADB0E485-085F-4FB6-A1B0-1B59E1168C07}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{29BC0690-F030-4A82-A4EE-2BC13D629818}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{29FF97D1-3C4F-483A-8585-231A33490065}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{169B2127-5A7D-4A10-AA0D-A72361F29B10}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C0FCAFE2-C277-4E02-B701-F52671533838}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D65B0B33-8773-4340-993F-1D6406F980D3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{30B7856F-8251-47B2-AF4E-74DD82427021}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{219B2328-87DC-4346-BB82-899DD81A004C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EE9E2B41-BE92-4ABD-953B-3D0EF7AC814C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{82BBE62A-2664-45DD-9ECB-A0EF6F3E5DDC}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8C3F845B-4E22-4A0B-8C17-7CDA2FEE9C1C}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{EE3AD4D6-B620-4E3A-91D6-21CA4EF36C9D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{68DD8CA9-D785-4EDC-BE3C-6D4660314202}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2502923D-9D67-4A24-A167-363555A3456A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C127C298-4D70-4DBE-AEE3-29434DB44C68}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DBA4F1A1-F201-4032-A463-73ACB6A0AC2D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480B553-FF9E-458D-9548-E23A05C560C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D865B-8C28-4900-9ECB-CC5A0EC859D8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2468,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C99F4C0-12A4-481A-844A-0966AF2474D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A52F10-77B3-4989-85D3-97E1807A159A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3767,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BF93D8-5472-48EC-AD8E-447B88340F68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EAD3F-2C3B-4C14-AFB7-A43D8B158B60}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5060,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065BF529-17FF-474A-BB33-6C3F19EA2F2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA077C7B-D4A6-41AF-B6CC-5AA8C7DA335C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6351,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ED2649-A918-4B5A-9CA2-98E104459782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095522FD-21ED-4177-B3ED-900C57A48858}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7620,7 +7620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CB91D2-1D05-4681-9F9B-88BBBC1CDFBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D71BC59-8C54-41FD-B6F9-55209A8EDBD6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
